--- a/Ejemplos/TEXT function examples.xlsx
+++ b/Ejemplos/TEXT function examples.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <xr:revisionPtr revIDLastSave="1" documentId="11_1D0D9A5E49FE16F82885D134FC7B79F52C72AB1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1E53DBB-1B8C-47B0-B3B1-0F50EC8CA32A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-900" windowWidth="29040" windowHeight="15720" tabRatio="947" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOTES" sheetId="18" r:id="rId1"/>
@@ -43,6 +43,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4407,7 +4409,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5628,7 +5632,7 @@
       <c r="B4" s="105" t="str">
         <f ca="1">"Today is: "&amp;CHAR(10)&amp;TEXT(TODAY(),"mm/dd/yy")</f>
         <v>Today is: 
-11/17/yy</v>
+09/26/yy</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5793,7 +5797,7 @@
       </c>
       <c r="C8" s="91">
         <f ca="1">TODAY()</f>
-        <v>44517</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="66" x14ac:dyDescent="0.3">
@@ -5805,7 +5809,7 @@
       </c>
       <c r="C9" s="92">
         <f ca="1">NOW()</f>
-        <v>44517.593997453703</v>
+        <v>44830.674234375001</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33" x14ac:dyDescent="0.3">
@@ -5951,7 +5955,7 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="108">
         <f ca="1">TODAY()</f>
-        <v>44517</v>
+        <v>44830</v>
       </c>
       <c r="B9" s="3" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C9)</f>
@@ -5959,13 +5963,13 @@
       </c>
       <c r="C9" s="3" t="str">
         <f ca="1">TEXT(A9,"MM/DD/YY")</f>
-        <v>11/17/YY</v>
+        <v>09/26/YY</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="109">
         <f ca="1">TODAY()</f>
-        <v>44517</v>
+        <v>44830</v>
       </c>
       <c r="B10" s="6" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C10)</f>
@@ -5973,7 +5977,7 @@
       </c>
       <c r="C10" s="6" t="str">
         <f ca="1">TEXT(A10,"DDDD")</f>
-        <v>miércoles</v>
+        <v>lunes</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6460,9 +6464,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6487,7 +6489,7 @@
       </c>
       <c r="B3" s="48">
         <f ca="1">TODAY()</f>
-        <v>44517</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6524,7 +6526,7 @@
       </c>
       <c r="E6" s="24" t="str">
         <f ca="1">TEXT(B3,"m")</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -6543,7 +6545,7 @@
       </c>
       <c r="E7" s="21" t="str">
         <f ca="1">TEXT(B3,"mm")</f>
-        <v>11</v>
+        <v>09</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -6562,7 +6564,7 @@
       </c>
       <c r="E8" s="20" t="str">
         <f ca="1">TEXT(B3,"mmm")</f>
-        <v>nov</v>
+        <v>sep</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -6581,7 +6583,7 @@
       </c>
       <c r="E9" s="21" t="str">
         <f ca="1">TEXT(B3,"mmmm")</f>
-        <v>noviembre</v>
+        <v>septiembre</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6600,7 +6602,7 @@
       </c>
       <c r="E10" s="52" t="str">
         <f ca="1">TEXT(B3,"mmmmm")</f>
-        <v>n</v>
+        <v>s</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -6619,7 +6621,7 @@
       </c>
       <c r="E11" s="21" t="str">
         <f ca="1">TEXT(B3,"d")</f>
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -6638,7 +6640,7 @@
       </c>
       <c r="E12" s="20" t="str">
         <f ca="1">TEXT(B3,"dd")</f>
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -6657,7 +6659,7 @@
       </c>
       <c r="E13" s="21" t="str">
         <f ca="1">TEXT(B3,"ddd")</f>
-        <v>mi</v>
+        <v>lu</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6676,7 +6678,7 @@
       </c>
       <c r="E14" s="52" t="str">
         <f ca="1">TEXT(B3,"dddd")</f>
-        <v>miércoles</v>
+        <v>lunes</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -6738,7 +6740,7 @@
       </c>
       <c r="C21" s="35" t="str">
         <f ca="1">TEXT(StartDate,"m")</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -6792,7 +6794,7 @@
       </c>
       <c r="B3" s="49">
         <f ca="1">NOW()</f>
-        <v>44517.593997453703</v>
+        <v>44830.674234375001</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6829,7 +6831,7 @@
       </c>
       <c r="E6" s="3" t="str">
         <f ca="1">TEXT(B3,"h")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6848,7 +6850,7 @@
       </c>
       <c r="E7" s="51" t="str">
         <f ca="1">TEXT(B3,"hh")</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" s="40"/>
     </row>
@@ -6868,7 +6870,7 @@
       </c>
       <c r="E8" s="13" t="str">
         <f ca="1">TEXT(B3,"m")</f>
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6887,7 +6889,7 @@
       </c>
       <c r="E9" s="51" t="str">
         <f ca="1">TEXT(B3,"mm")</f>
-        <v>11</v>
+        <v>09</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -6906,7 +6908,7 @@
       </c>
       <c r="E10" s="13" t="str">
         <f ca="1">TEXT(B3,"s")</f>
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6925,7 +6927,7 @@
       </c>
       <c r="E11" s="51" t="str">
         <f ca="1">TEXT(B3,"ss")</f>
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6934,7 +6936,7 @@
       </c>
       <c r="B12" s="73">
         <f ca="1">StartTime</f>
-        <v>44517.593997453703</v>
+        <v>44830.674234375001</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>105</v>
@@ -6945,7 +6947,7 @@
       </c>
       <c r="E12" s="13" t="str">
         <f ca="1">TEXT(B3,"h AM/PM")</f>
-        <v>2 PM</v>
+        <v>4 PM</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6954,7 +6956,7 @@
       </c>
       <c r="B13" s="74">
         <f ca="1">StartTime</f>
-        <v>44517.593997453703</v>
+        <v>44830.674234375001</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>106</v>
@@ -6965,7 +6967,7 @@
       </c>
       <c r="E13" s="6" t="str">
         <f ca="1">TEXT(B3,"h:mm AM/PM")</f>
-        <v>2:15 PM</v>
+        <v>4:10 PM</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6974,7 +6976,7 @@
       </c>
       <c r="B14" s="75">
         <f ca="1">StartTime</f>
-        <v>44517.593997453703</v>
+        <v>44830.674234375001</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>107</v>
@@ -6985,7 +6987,7 @@
       </c>
       <c r="E14" s="13" t="str">
         <f ca="1">TEXT(B3,"h:mm:ss A/P")</f>
-        <v>2:15:21 P</v>
+        <v>4:10:54 P</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6994,7 +6996,7 @@
       </c>
       <c r="B15" s="76">
         <f ca="1">StartTime</f>
-        <v>44517.593997453703</v>
+        <v>44830.674234375001</v>
       </c>
       <c r="C15" s="51" t="s">
         <v>110</v>
@@ -7107,7 +7109,7 @@
       </c>
       <c r="B3" s="50">
         <f ca="1">NOW()</f>
-        <v>44517.593997453703</v>
+        <v>44830.674234375001</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -7126,7 +7128,7 @@
       </c>
       <c r="B6" s="38" t="str">
         <f ca="1">"Date: "&amp;TEXT(B3,"mm/dd/yyyy")</f>
-        <v>Date: 11/17/yyyy</v>
+        <v>Date: 09/26/yyyy</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7136,7 +7138,7 @@
       </c>
       <c r="B7" s="39" t="str">
         <f ca="1">"Date-time: " &amp; TEXT(B3, "m/d/yyyy h:mm AM/PM")</f>
-        <v>Date-time: 11/17/yyyy 2:15 PM</v>
+        <v>Date-time: 9/26/yyyy 4:10 PM</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -7147,7 +7149,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f ca="1">"Today is "&amp;TEXT(B3,"dddd, mmmm yyyy")&amp;", and the current time is "&amp;TEXT(B3,"hh/mm AM/PM")&amp;"."</f>
-        <v>Today is miércoles, noviembre yyyy, and the current time is 02/15 PM.</v>
+        <v>Today is lunes, septiembre yyyy, and the current time is 04/10 PM.</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
